--- a/APM files/125118363/125118363 IMPORT 1 BMC Cloud Property.xlsx
+++ b/APM files/125118363/125118363 IMPORT 1 BMC Cloud Property.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elias\dev\workspace\APM files\125118363\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347069CD-ACA3-4010-B185-44D6E0AA7164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7296DDD-6763-4F78-8C12-CA44CA46E202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13605" yWindow="6030" windowWidth="21510" windowHeight="13215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6105" yWindow="6030" windowWidth="21510" windowHeight="13215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="218">
   <si>
     <t>Hotel ID</t>
   </si>
@@ -662,13 +662,28 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>5454640</t>
+  </si>
+  <si>
+    <t>5454641</t>
+  </si>
+  <si>
+    <t>5454642</t>
+  </si>
+  <si>
+    <t>5454643</t>
+  </si>
+  <si>
+    <t>5454644</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -681,25 +696,13 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -726,19 +729,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1042,7 +1042,7 @@
   <dimension ref="A1:L101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="F103" sqref="F103"/>
+      <selection activeCell="G102" sqref="G102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4724,7 +4724,9 @@
       <c r="E97" t="s">
         <v>115</v>
       </c>
-      <c r="F97" s="2"/>
+      <c r="F97" t="s">
+        <v>213</v>
+      </c>
       <c r="G97" t="s">
         <v>211</v>
       </c>
@@ -4760,7 +4762,9 @@
       <c r="E98" t="s">
         <v>115</v>
       </c>
-      <c r="F98" s="2"/>
+      <c r="F98" t="s">
+        <v>214</v>
+      </c>
       <c r="G98" t="s">
         <v>212</v>
       </c>
@@ -4796,7 +4800,9 @@
       <c r="E99" t="s">
         <v>115</v>
       </c>
-      <c r="F99" s="2"/>
+      <c r="F99" t="s">
+        <v>215</v>
+      </c>
       <c r="G99" t="s">
         <v>211</v>
       </c>
@@ -4832,7 +4838,9 @@
       <c r="E100" t="s">
         <v>115</v>
       </c>
-      <c r="F100" s="2"/>
+      <c r="F100" t="s">
+        <v>216</v>
+      </c>
       <c r="G100" t="s">
         <v>212</v>
       </c>
@@ -4868,7 +4876,9 @@
       <c r="E101" t="s">
         <v>115</v>
       </c>
-      <c r="F101" s="2"/>
+      <c r="F101" t="s">
+        <v>217</v>
+      </c>
       <c r="G101" t="s">
         <v>211</v>
       </c>
